--- a/similarities/split_global/harmonic_similarity_timestamps_342.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_342.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.465419', '0:00:19.151224')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G/5', 'G:min/5', 'D'], ['D', 'G/5', 'D']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:09.120000', '0:02:11.120000'), ('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:26.291723', '0:01:33.397029'), ('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=86.291723', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.980000', '0:00:10.540000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=7.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:00.240000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:09.400000', '0:00:20.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=9.4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:26.940000', '0:01:37.980000')]</t>
+          <t>('0:01:01.800000', '0:01:09.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:36.500000', '0:00:41.660000')]</t>
+          <t>('0:00:35.080113', '0:00:43.578616')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=35.080113</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3'], ['A/3', 'D', 'A']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D'], ['D', 'G', 'D']]</t>
+          <t>['A', 'D/5', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:45.712000', '0:00:51.648000'), ('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:15.014000', '0:00:24.195000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:30.494172', '0:00:33.431496'), ('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:17.913000', '0:00:26.611000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=45.712', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=30.494172', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:49.402280', '0:00:59.224321')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_46</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Bb:7', 'Eb:7', 'Bb:7']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:7', 'C:7', 'F:7', 'C:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.760000', '0:00:15.470000')]</t>
+          <t>('0:00:21.280000', '0:00:41.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:21.821519', '0:00:37.100249')]</t>
+          <t>('0:00:16.840000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-46#t=2.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=21.821519']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:20.860000', '0:00:27.060000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:12.260000', '0:00:17.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=20.86</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=12.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:15.640000', '0:00:24.280000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:18.651995', '0:00:24.735623')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:14.620000', '0:00:22.040000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['F', 'C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:17.020000', '0:00:23.280000')]</t>
+          <t>('0:00:16.562199', '0:00:24.735623')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:00:36.970000', '0:00:42.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=17.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
